--- a/231207/9월 월간 메뉴표.xlsx
+++ b/231207/9월 월간 메뉴표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\white\Dropbox\패밀리룸\LSCP행정\6. 학교운영\4. 학생식사, 식대관리\2023 메뉴\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minhyukoh/Documents/Personal Tutor/sy0403/231207/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB07BF6-EAD8-4755-99FD-4FEAC745EC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB758BB-47C1-9D44-AF2A-598B7CAB3ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{11373602-D964-4A5C-B835-771C417587AD}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="14400" windowHeight="15060" xr2:uid="{11373602-D964-4A5C-B835-771C417587AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,7 +95,7 @@
         <u/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -107,7 +107,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
@@ -516,20 +516,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -559,7 +559,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -567,7 +567,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -612,7 +612,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -622,7 +622,7 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -664,7 +664,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -707,20 +707,6 @@
     </font>
     <font>
       <sz val="18"/>
-      <name val="나눔손글씨 가람연꽃"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="나눔손글씨 가람연꽃"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
       <name val="나눔손글씨 가람연꽃"/>
       <family val="3"/>
       <charset val="129"/>
@@ -752,7 +738,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -838,17 +824,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -862,7 +837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,32 +919,17 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -995,12 +955,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1016,7 +976,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1317,44 +1277,44 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:15" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:15" ht="23.25" customHeight="1">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1374,7 +1334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -1390,7 +1350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="98.25" customHeight="1">
       <c r="A6" s="11"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
@@ -1406,7 +1366,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15">
       <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
@@ -1426,7 +1386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="98.25" customHeight="1">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
@@ -1452,7 +1412,7 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15">
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
@@ -1472,7 +1432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="98.25" customHeight="1">
       <c r="A10" s="15" t="s">
         <v>42</v>
       </c>
@@ -1495,7 +1455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15">
       <c r="A11" s="17" t="s">
         <v>28</v>
       </c>
@@ -1515,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="98.25" customHeight="1">
       <c r="A12" s="15" t="s">
         <v>47</v>
       </c>
@@ -1533,7 +1493,7 @@
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15">
       <c r="A13" s="14" t="s">
         <v>33</v>
       </c>
@@ -1545,7 +1505,7 @@
       <c r="E13" s="14"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:15" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="98.25" customHeight="1">
       <c r="A14" s="16" t="s">
         <v>52</v>
       </c>
@@ -1557,23 +1517,23 @@
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+    <row r="16" spans="1:15">
+      <c r="A16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1593,41 +1553,41 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="13.625" customWidth="1"/>
+    <col min="1" max="5" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1">
+      <c r="A1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-    </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
-    </row>
-    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:12" ht="30" customHeight="1">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+    </row>
+    <row r="3" spans="1:12" ht="30" customHeight="1">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:12" ht="30" customHeight="1">
       <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
@@ -1644,7 +1604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="30" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>71</v>
       </c>
@@ -1661,7 +1621,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="60" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>91</v>
       </c>
@@ -1678,114 +1638,106 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
-        <v>11000</v>
-      </c>
-      <c r="B7" s="22">
-        <v>9600</v>
-      </c>
-      <c r="C7" s="22">
-        <v>7900</v>
-      </c>
-      <c r="D7" s="22">
-        <v>10800</v>
-      </c>
-      <c r="E7" s="22">
-        <v>8700</v>
-      </c>
-      <c r="F7">
-        <f>AVERAGE(A7:E7)</f>
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26" t="s">
+    <row r="7" spans="1:12" ht="30" customHeight="1">
+      <c r="A7" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B7" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C7" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E7" s="26" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28" t="s">
+    <row r="8" spans="1:12" ht="30" customHeight="1">
+      <c r="A8" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B8" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C8" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D8" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E8" s="28" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28">
-        <v>6680</v>
-      </c>
-      <c r="B10" s="22">
-        <v>8500</v>
-      </c>
-      <c r="C10" s="22">
-        <v>5720</v>
-      </c>
-      <c r="D10" s="22">
-        <v>8200</v>
-      </c>
-      <c r="E10" s="28">
-        <v>12000</v>
-      </c>
-      <c r="F10">
-        <f>AVERAGE(A10:E10)</f>
-        <v>8220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="60" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A10" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="60" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>111</v>
+        <v>104</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>97</v>
       </c>
       <c r="H12" s="15" t="s">
         <v>63</v>
@@ -1803,173 +1755,78 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
-        <v>6800</v>
-      </c>
-      <c r="B13" s="22">
-        <v>10000</v>
-      </c>
-      <c r="C13" s="22">
-        <v>8400</v>
-      </c>
-      <c r="D13" s="22">
-        <v>9000</v>
-      </c>
-      <c r="E13" s="22">
-        <v>10900</v>
-      </c>
-      <c r="F13">
-        <f>AVERAGE(A13:E13)</f>
-        <v>9020</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
-        <v>8300</v>
-      </c>
-      <c r="B16" s="22">
-        <v>9720</v>
-      </c>
-      <c r="C16" s="23">
-        <v>7400</v>
-      </c>
-      <c r="D16" s="24">
-        <v>8000</v>
-      </c>
-      <c r="E16" s="29">
-        <v>7000</v>
-      </c>
-      <c r="F16">
-        <f>AVERAGE(A16:E16)</f>
-        <v>8084</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+    <row r="13" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A13" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B13" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C13" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D13" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="27" t="s">
+      <c r="E13" s="27" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1">
+      <c r="A14" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B14" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C14" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E14" s="25" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
-        <v>8600</v>
-      </c>
-      <c r="B19" s="34">
-        <v>9400</v>
-      </c>
-      <c r="C19" s="35">
-        <v>8000</v>
-      </c>
-      <c r="D19" s="34">
-        <v>9900</v>
-      </c>
-      <c r="E19" s="32">
-        <v>8900</v>
-      </c>
-      <c r="F19">
-        <f>AVERAGE(A19:E20)</f>
-        <v>8960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20">
-        <f>AVERAGE(F7,F10,F13,F16,F19)</f>
-        <v>8776.7999999999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+    <row r="15" spans="1:12" ht="60" customHeight="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" t="e">
+        <f>AVERAGE(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="27.75" customHeight="1">
+      <c r="A16" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="5:5" ht="30" customHeight="1">
+      <c r="E17" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="18" spans="5:5" ht="60" customHeight="1"/>
+    <row r="19" spans="5:5" ht="29.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
